--- a/ch3/stat_104102.xlsx
+++ b/ch3/stat_104102.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/home/docker/mlearn/ch3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{854588AC-E441-AF40-83A4-3B21CF41C4B7}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B40344BC-BC85-584D-AA9A-B3533DEB63D3}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="14400" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet0" sheetId="1" r:id="rId1"/>
+    <sheet name="stat_104102" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
